--- a/public/files/Insert-Siswa.xlsx
+++ b/public/files/Insert-Siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRI NURIPAH\OneDrive\Documents\PKL\Journal-Web\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRI NURIPAH\OneDrive\Documents\PKL\web-jurnal-pkl\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5EEF23-4314-43DC-AB00-1A327C44ABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8A49C-24D4-4CF9-88A6-5EC2250673D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Kelas</t>
   </si>
   <si>
     <t>RENLM</t>
@@ -43,18 +40,6 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>XII</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>Tahun Pelajaran</t>
-  </si>
-  <si>
-    <t>2023/2024</t>
-  </si>
-  <si>
     <t>example 1</t>
   </si>
   <si>
@@ -66,12 +51,15 @@
   <si>
     <t>HBDJB</t>
   </si>
+  <si>
+    <t>Phone</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -95,8 +83,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +109,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,19 +139,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -159,29 +147,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,114 +475,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1673"/>
+  <dimension ref="A1:E1673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>12345678</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2" s="5">
+        <v>8122345672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>87654321</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>87654321</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
+      <c r="E3" s="5">
+        <v>81223456721</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>13579013</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>12345678</v>
+      <c r="C4" s="2">
+        <v>13579013</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="E2" s="8">
-        <v>12345678</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
+      <c r="E4" s="5">
+        <v>8122345673</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>87654321</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8">
-        <v>87654321</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>13579013</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8">
-        <v>13579013</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2254,5 +2229,6 @@
     <row r="1673" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>